--- a/requirements/Requirements Excel/Requirement_scalability.xlsx
+++ b/requirements/Requirements Excel/Requirement_scalability.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert Bartz\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert Bartz\Desktop\Robert Bartz\FH Kufstein\2. Semester\05_SE_ILV\Bird_Requirements\requirements\Requirements Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1C1B59-9056-4273-85D7-DCAC05382428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15EFB43-D508-4427-A564-621E9287C39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{02421E9F-6F91-4F88-92F9-C987603F6219}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Use Case ID:</t>
   </si>
@@ -69,25 +69,28 @@
     <t>class: non-functional</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>R5</t>
   </si>
   <si>
     <t>Intention</t>
   </si>
   <si>
-    <t xml:space="preserve">In order to gain market share for the bird classifier potential inegration into Flask is desirable. </t>
-  </si>
-  <si>
-    <t>macht das Sinn?</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
-    <t>Portability into Flask</t>
+    <t>running streamlit app</t>
+  </si>
+  <si>
+    <t>Scalability</t>
+  </si>
+  <si>
+    <t>Being able to process 100 requests paralelly and scale to 1.000 after the first year vertically or horizontally</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
   </si>
 </sst>
 </file>
@@ -633,7 +636,7 @@
   <dimension ref="B1:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -664,11 +667,9 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="D3" s="6"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="2:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -676,7 +677,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -686,7 +687,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -696,7 +697,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -716,14 +717,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
     </row>
     <row r="9" spans="2:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
     </row>
@@ -759,7 +762,9 @@
       <c r="B13" s="12">
         <v>1</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
@@ -767,7 +772,9 @@
       <c r="B14" s="19">
         <v>2</v>
       </c>
-      <c r="C14" s="21"/>
+      <c r="C14" s="21" t="s">
+        <v>21</v>
+      </c>
       <c r="D14" s="21"/>
       <c r="E14" s="13"/>
     </row>
